--- a/medicine/Enfance/Erwin_Moser/Erwin_Moser.xlsx
+++ b/medicine/Enfance/Erwin_Moser/Erwin_Moser.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Erwin Moser, né le 23 janvier 1954 à Vienne et mort le 12 octobre 2017 à Gols[1], est un auteur et illustrateur autrichien de livres pour enfants. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Erwin Moser, né le 23 janvier 1954 à Vienne et mort le 12 octobre 2017 à Gols, est un auteur et illustrateur autrichien de livres pour enfants. 
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né à Vienne le 23 janvier 1954, Erwin Moser grandit à Gols dans le Burgenland où ses parents cultivent la vigne. De retour à Vienne pour y recevoir une formation de typographe, c’est en 1975 qu’il commence sa carrière d’auteur en écrivant des livres pour enfants dont il est lui-même l’illustrateur. Il est l’auteur de plus d’une centaine de titres en langue allemande. Une partie de son œuvre a été traduite en français, dont notamment les histoires de Manuel et Didi, deux souris, amis inséparables, qui vivent des aventures diverses dans des cadres champêtres.
 </t>
@@ -542,7 +556,9 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titres publiés en français :
 Le ragondin ne dormait pas (1983)  (ISBN 2-07-039099-3)
@@ -590,7 +606,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1987 : Prix Owl pour Le Corbeau dans la neige
 1992 : Rattenfänger-Literaturpreis pour Der Rabe Alfons</t>
